--- a/src/test/resources/examplefiles/two-sheets.xlsx
+++ b/src/test/resources/examplefiles/two-sheets.xlsx
@@ -19,1150 +19,1150 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="382">
   <si>
-    <t>Kolonne 1</t>
-  </si>
-  <si>
-    <t>Kolonne 2</t>
-  </si>
-  <si>
-    <t>Kolonne 3</t>
-  </si>
-  <si>
-    <t>Kolonne 4</t>
-  </si>
-  <si>
-    <t>Kolonne 5</t>
-  </si>
-  <si>
-    <t>Kolonne 6</t>
-  </si>
-  <si>
-    <t>Kolonne 7</t>
-  </si>
-  <si>
-    <t>Kolonne 8</t>
-  </si>
-  <si>
-    <t>Kolonne 9</t>
-  </si>
-  <si>
-    <t>Kolonne 10</t>
-  </si>
-  <si>
-    <t>Kolonne 11</t>
-  </si>
-  <si>
-    <t>Kolonne 12</t>
-  </si>
-  <si>
-    <t>Kolonne 13</t>
-  </si>
-  <si>
-    <t>Kolonne 14</t>
-  </si>
-  <si>
-    <t>Kolonne 15</t>
-  </si>
-  <si>
-    <t>Kolonne 16</t>
-  </si>
-  <si>
-    <t>Kolonne 17</t>
-  </si>
-  <si>
-    <t>Kolonne 18</t>
-  </si>
-  <si>
-    <t>Kolonne 19</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 2, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 3, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 4, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 5, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 6, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 7, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 8, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 9, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 10, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 11, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 12, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 13, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 14, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 15, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 16, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 17, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 18, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 19, Kolonne: 20</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 2</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 3</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 4</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 5</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 6</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 7</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 8</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 9</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 10</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 11</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 12</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 13</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 14</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 15</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 16</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 17</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 18</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 19</t>
-  </si>
-  <si>
-    <t>Rad: 20, Kolonne: 20</t>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>Column 5</t>
+  </si>
+  <si>
+    <t>Column 6</t>
+  </si>
+  <si>
+    <t>Column 7</t>
+  </si>
+  <si>
+    <t>Column 8</t>
+  </si>
+  <si>
+    <t>Column 9</t>
+  </si>
+  <si>
+    <t>Column 10</t>
+  </si>
+  <si>
+    <t>Column 11</t>
+  </si>
+  <si>
+    <t>Column 12</t>
+  </si>
+  <si>
+    <t>Column 13</t>
+  </si>
+  <si>
+    <t>Column 14</t>
+  </si>
+  <si>
+    <t>Column 15</t>
+  </si>
+  <si>
+    <t>Column 16</t>
+  </si>
+  <si>
+    <t>Column 17</t>
+  </si>
+  <si>
+    <t>Column 18</t>
+  </si>
+  <si>
+    <t>Column 19</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 2, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 3, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 4, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 5, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 6, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 7, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 8, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 9, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 10, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 11, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 12, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 13, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 14, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 15, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 16, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 17, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 18, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 19, Column: 20</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 2</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 3</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 4</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 5</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 6</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 7</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 8</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 9</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 10</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 11</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 12</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 13</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 14</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 15</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 16</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 17</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 18</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 19</t>
+  </si>
+  <si>
+    <t>Row: 20, Column: 20</t>
   </si>
   <si>
     <t>Table 1-1</t>
   </si>
   <si>
-    <t>Tekst</t>
+    <t>Text</t>
   </si>
 </sst>
 </file>
@@ -1317,7 +1317,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
@@ -1325,16 +1325,13 @@
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="0"/>
@@ -1651,61 +1648,61 @@
     </row>
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="R2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="S2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="T2" s="2" t="s">
         <v>37</v>
       </c>
       <c r="U2" s="4"/>
@@ -1717,61 +1714,61 @@
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="R3" s="5" t="s">
+      <c r="R3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="S3" s="5" t="s">
+      <c r="S3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T3" s="5" t="s">
+      <c r="T3" s="2" t="s">
         <v>56</v>
       </c>
       <c r="U3" s="4"/>
@@ -1783,61 +1780,61 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="L4" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N4" s="5" t="s">
+      <c r="N4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="O4" s="5" t="s">
+      <c r="O4" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="P4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="Q4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="R4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="S4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="2" t="s">
         <v>75</v>
       </c>
       <c r="U4" s="4"/>
@@ -1849,61 +1846,61 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="U5" s="4"/>
@@ -1915,61 +1912,61 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="L6" s="5" t="s">
+      <c r="L6" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M6" s="5" t="s">
+      <c r="M6" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="N6" s="5" t="s">
+      <c r="N6" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="O6" s="5" t="s">
+      <c r="O6" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P6" s="5" t="s">
+      <c r="P6" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Q6" s="5" t="s">
+      <c r="Q6" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="R6" s="5" t="s">
+      <c r="R6" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="S6" s="5" t="s">
+      <c r="S6" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="T6" s="5" t="s">
+      <c r="T6" s="2" t="s">
         <v>113</v>
       </c>
       <c r="U6" s="4"/>
@@ -1981,61 +1978,61 @@
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K7" s="5" t="s">
+      <c r="K7" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="L7" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="M7" s="5" t="s">
+      <c r="M7" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="N7" s="5" t="s">
+      <c r="N7" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="O7" s="5" t="s">
+      <c r="O7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="P7" s="5" t="s">
+      <c r="P7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="Q7" s="5" t="s">
+      <c r="Q7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="R7" s="5" t="s">
+      <c r="R7" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="S7" s="5" t="s">
+      <c r="S7" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="T7" s="5" t="s">
+      <c r="T7" s="2" t="s">
         <v>132</v>
       </c>
       <c r="U7" s="4"/>
@@ -2047,61 +2044,61 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="K8" s="5" t="s">
+      <c r="K8" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="L8" s="5" t="s">
+      <c r="L8" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="M8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="N8" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="O8" s="5" t="s">
+      <c r="O8" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="P8" s="5" t="s">
+      <c r="P8" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="Q8" s="5" t="s">
+      <c r="Q8" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="R8" s="5" t="s">
+      <c r="R8" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="S8" s="5" t="s">
+      <c r="S8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="T8" s="5" t="s">
+      <c r="T8" s="2" t="s">
         <v>151</v>
       </c>
       <c r="U8" s="4"/>
@@ -2113,61 +2110,61 @@
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G9" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="K9" s="5" t="s">
+      <c r="K9" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="L9" s="5" t="s">
+      <c r="L9" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M9" s="5" t="s">
+      <c r="M9" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="N9" s="5" t="s">
+      <c r="N9" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="P9" s="5" t="s">
+      <c r="P9" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="Q9" s="5" t="s">
+      <c r="Q9" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="R9" s="5" t="s">
+      <c r="R9" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="S9" s="5" t="s">
+      <c r="S9" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="T9" s="5" t="s">
+      <c r="T9" s="2" t="s">
         <v>170</v>
       </c>
       <c r="U9" s="4"/>
@@ -2179,61 +2176,61 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M10" s="5" t="s">
+      <c r="M10" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="N10" s="5" t="s">
+      <c r="N10" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O10" s="5" t="s">
+      <c r="O10" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="P10" s="5" t="s">
+      <c r="P10" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Q10" s="5" t="s">
+      <c r="Q10" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="R10" s="5" t="s">
+      <c r="R10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="S10" s="5" t="s">
+      <c r="S10" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="T10" s="5" t="s">
+      <c r="T10" s="2" t="s">
         <v>189</v>
       </c>
       <c r="U10" s="4"/>
@@ -2245,61 +2242,61 @@
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="5" t="s">
+      <c r="M11" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="N11" s="5" t="s">
+      <c r="N11" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="O11" s="5" t="s">
+      <c r="O11" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="P11" s="5" t="s">
+      <c r="P11" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="Q11" s="5" t="s">
+      <c r="Q11" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="R11" s="5" t="s">
+      <c r="R11" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="S11" s="5" t="s">
+      <c r="S11" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="T11" s="5" t="s">
+      <c r="T11" s="2" t="s">
         <v>208</v>
       </c>
       <c r="U11" s="4"/>
@@ -2311,61 +2308,61 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="5" t="s">
+      <c r="G12" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="M12" s="5" t="s">
+      <c r="M12" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="N12" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="O12" s="5" t="s">
+      <c r="O12" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P12" s="5" t="s">
+      <c r="P12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="Q12" s="5" t="s">
+      <c r="Q12" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="R12" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="S12" s="5" t="s">
+      <c r="S12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="T12" s="5" t="s">
+      <c r="T12" s="2" t="s">
         <v>227</v>
       </c>
       <c r="U12" s="4"/>
@@ -2377,61 +2374,61 @@
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G13" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K13" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="M13" s="5" t="s">
+      <c r="M13" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="N13" s="5" t="s">
+      <c r="N13" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O13" s="5" t="s">
+      <c r="O13" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="P13" s="5" t="s">
+      <c r="P13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="Q13" s="5" t="s">
+      <c r="Q13" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="R13" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="S13" s="5" t="s">
+      <c r="S13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="T13" s="5" t="s">
+      <c r="T13" s="2" t="s">
         <v>246</v>
       </c>
       <c r="U13" s="4"/>
@@ -2443,61 +2440,61 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="K14" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="L14" s="5" t="s">
+      <c r="L14" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="M14" s="5" t="s">
+      <c r="M14" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N14" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="O14" s="5" t="s">
+      <c r="O14" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="P14" s="5" t="s">
+      <c r="P14" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="Q14" s="5" t="s">
+      <c r="Q14" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="R14" s="5" t="s">
+      <c r="R14" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="S14" s="5" t="s">
+      <c r="S14" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="T14" s="5" t="s">
+      <c r="T14" s="2" t="s">
         <v>265</v>
       </c>
       <c r="U14" s="4"/>
@@ -2509,61 +2506,61 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K15" s="5" t="s">
+      <c r="K15" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="L15" s="5" t="s">
+      <c r="L15" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="M15" s="5" t="s">
+      <c r="M15" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="N15" s="5" t="s">
+      <c r="N15" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="O15" s="5" t="s">
+      <c r="O15" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="P15" s="5" t="s">
+      <c r="P15" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="Q15" s="5" t="s">
+      <c r="Q15" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="R15" s="5" t="s">
+      <c r="R15" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="S15" s="5" t="s">
+      <c r="S15" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="T15" s="5" t="s">
+      <c r="T15" s="2" t="s">
         <v>284</v>
       </c>
       <c r="U15" s="4"/>
@@ -2575,61 +2572,61 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="G16" s="5" t="s">
+      <c r="G16" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="K16" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="L16" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="M16" s="5" t="s">
+      <c r="M16" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="N16" s="5" t="s">
+      <c r="N16" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="O16" s="5" t="s">
+      <c r="O16" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="P16" s="5" t="s">
+      <c r="P16" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="Q16" s="5" t="s">
+      <c r="Q16" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="R16" s="5" t="s">
+      <c r="R16" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="S16" s="5" t="s">
+      <c r="S16" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="T16" s="5" t="s">
+      <c r="T16" s="2" t="s">
         <v>303</v>
       </c>
       <c r="U16" s="4"/>
@@ -2641,61 +2638,61 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G17" s="5" t="s">
+      <c r="G17" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="K17" s="5" t="s">
+      <c r="K17" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="L17" s="5" t="s">
+      <c r="L17" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="M17" s="5" t="s">
+      <c r="M17" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="O17" s="5" t="s">
+      <c r="O17" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="P17" s="5" t="s">
+      <c r="P17" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="Q17" s="5" t="s">
+      <c r="Q17" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="R17" s="5" t="s">
+      <c r="R17" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="S17" s="5" t="s">
+      <c r="S17" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="T17" s="5" t="s">
+      <c r="T17" s="2" t="s">
         <v>322</v>
       </c>
       <c r="U17" s="4"/>
@@ -2707,61 +2704,61 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G18" s="5" t="s">
+      <c r="G18" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="K18" s="5" t="s">
+      <c r="K18" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="M18" s="5" t="s">
+      <c r="M18" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="N18" s="5" t="s">
+      <c r="N18" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="O18" s="5" t="s">
+      <c r="O18" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="P18" s="5" t="s">
+      <c r="P18" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="Q18" s="5" t="s">
+      <c r="Q18" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="R18" s="5" t="s">
+      <c r="R18" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="S18" s="5" t="s">
+      <c r="S18" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="T18" s="5" t="s">
+      <c r="T18" s="2" t="s">
         <v>341</v>
       </c>
       <c r="U18" s="4"/>
@@ -2773,61 +2770,61 @@
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G19" s="5" t="s">
+      <c r="G19" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K19" s="5" t="s">
+      <c r="K19" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="M19" s="5" t="s">
+      <c r="M19" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="N19" s="5" t="s">
+      <c r="N19" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="O19" s="5" t="s">
+      <c r="O19" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="P19" s="5" t="s">
+      <c r="P19" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="Q19" s="5" t="s">
+      <c r="Q19" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="R19" s="5" t="s">
+      <c r="R19" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="T19" s="5" t="s">
+      <c r="T19" s="2" t="s">
         <v>360</v>
       </c>
       <c r="U19" s="4"/>
@@ -2839,61 +2836,61 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G20" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="K20" s="5" t="s">
+      <c r="K20" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="M20" s="5" t="s">
+      <c r="M20" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="N20" s="5" t="s">
+      <c r="N20" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="O20" s="5" t="s">
+      <c r="O20" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="P20" s="5" t="s">
+      <c r="P20" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="Q20" s="5" t="s">
+      <c r="Q20" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="R20" s="5" t="s">
+      <c r="R20" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="S20" s="5" t="s">
+      <c r="S20" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="T20" s="5" t="s">
+      <c r="T20" s="2" t="s">
         <v>379</v>
       </c>
       <c r="U20" s="4"/>
@@ -3045,7 +3042,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="27.0" customHeight="1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>380</v>
       </c>
       <c r="E1" s="4"/>
@@ -3056,10 +3053,10 @@
       <c r="J1" s="4"/>
     </row>
     <row r="2" ht="20.25" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
@@ -3068,10 +3065,10 @@
       <c r="J2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -3081,9 +3078,9 @@
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -3093,9 +3090,9 @@
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
@@ -3105,9 +3102,9 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
@@ -3117,9 +3114,9 @@
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -3129,9 +3126,9 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -3141,9 +3138,9 @@
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
@@ -3153,9 +3150,9 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
@@ -3165,9 +3162,9 @@
     </row>
     <row r="11" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -3177,9 +3174,9 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -3189,9 +3186,9 @@
     </row>
     <row r="13" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
@@ -3219,13 +3216,13 @@
     </row>
     <row r="15" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="E15" s="4"/>
@@ -3237,13 +3234,13 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E16" s="4"/>
@@ -3255,13 +3252,13 @@
     </row>
     <row r="17" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="4"/>
@@ -3273,13 +3270,13 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E18" s="4"/>
@@ -3291,13 +3288,13 @@
     </row>
     <row r="19" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="2" t="s">
         <v>97</v>
       </c>
       <c r="E19" s="4"/>
@@ -3309,13 +3306,13 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="2" t="s">
         <v>116</v>
       </c>
       <c r="E20" s="4"/>
@@ -3327,13 +3324,13 @@
     </row>
     <row r="21" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="2" t="s">
         <v>135</v>
       </c>
       <c r="E21" s="4"/>
@@ -3345,13 +3342,13 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="2" t="s">
         <v>154</v>
       </c>
       <c r="E22" s="4"/>
@@ -3363,13 +3360,13 @@
     </row>
     <row r="23" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>173</v>
       </c>
       <c r="E23" s="4"/>
@@ -3381,13 +3378,13 @@
     </row>
     <row r="24" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="2" t="s">
         <v>192</v>
       </c>
       <c r="E24" s="4"/>
@@ -3399,13 +3396,13 @@
     </row>
     <row r="25" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="2" t="s">
         <v>211</v>
       </c>
       <c r="E25" s="4"/>
@@ -3417,13 +3414,13 @@
     </row>
     <row r="26" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
         <v>230</v>
       </c>
       <c r="E26" s="4"/>
@@ -3435,13 +3432,13 @@
     </row>
     <row r="27" ht="19.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="2" t="s">
         <v>249</v>
       </c>
       <c r="E27" s="4"/>
@@ -3453,13 +3450,13 @@
     </row>
     <row r="28" ht="19.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="2" t="s">
         <v>268</v>
       </c>
       <c r="E28" s="4"/>
@@ -3471,13 +3468,13 @@
     </row>
     <row r="29" ht="19.5" customHeight="1">
       <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="2" t="s">
         <v>287</v>
       </c>
       <c r="E29" s="4"/>
@@ -3489,13 +3486,13 @@
     </row>
     <row r="30" ht="19.5" customHeight="1">
       <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="2" t="s">
         <v>306</v>
       </c>
       <c r="E30" s="4"/>
@@ -3507,13 +3504,13 @@
     </row>
     <row r="31" ht="19.5" customHeight="1">
       <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="2" t="s">
         <v>325</v>
       </c>
       <c r="E31" s="4"/>
@@ -3525,13 +3522,13 @@
     </row>
     <row r="32" ht="19.5" customHeight="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="2" t="s">
         <v>344</v>
       </c>
       <c r="E32" s="4"/>
@@ -3543,13 +3540,13 @@
     </row>
     <row r="33" ht="19.5" customHeight="1">
       <c r="A33" s="1"/>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="2" t="s">
         <v>363</v>
       </c>
       <c r="E33" s="4"/>
